--- a/sputnik/personal/ee/116ee.xlsx
+++ b/sputnik/personal/ee/116ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,12 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -46,16 +40,31 @@
   </si>
   <si>
     <t>БАНЯ</t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -138,11 +147,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -155,9 +201,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -172,16 +215,23 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -242,7 +292,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,10 +324,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,7 +358,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -485,425 +533,324 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J17" sqref="J16:J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="53.25" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1">
       <c r="A2" s="4">
-        <v>43281</v>
+        <v>43393</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>5335</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>5535</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>3387</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>3587</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1">
       <c r="A4" s="4">
-        <v>43386</v>
+        <v>43670</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>5435</v>
+        <v>5935</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D11" si="0">C4-C2</f>
-        <v>100</v>
+        <f t="shared" ref="D4:D7" si="0">C4-C2</f>
+        <v>400</v>
       </c>
       <c r="E4" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.49</v>
+      </c>
+      <c r="F4" s="15">
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>1796</v>
+      </c>
+      <c r="G4" s="18">
+        <f>SUM(F4,F5)</f>
+        <v>2768</v>
+      </c>
+      <c r="H4" s="18">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>3487</v>
+        <v>3987</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E5" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F5" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F5" s="15">
         <f t="shared" si="1"/>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>972.00000000000011</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
-        <v>43393</v>
+        <v>43747</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>5535</v>
+        <v>6435</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E6" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="15">
+        <f>D6*E6</f>
+        <v>2245</v>
+      </c>
+      <c r="G6" s="18">
+        <f>SUM(F6,F7)</f>
+        <v>3217</v>
+      </c>
+      <c r="H6" s="18">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>3587</v>
+        <v>4387</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E7" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43670</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5935</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F7" s="15">
+        <f>D7*E7</f>
+        <v>972.00000000000011</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="18">
+        <f>SUM(G4:G7)</f>
+        <v>5985</v>
+      </c>
+      <c r="H8" s="18">
+        <f>SUM(H4:H7)</f>
+        <v>5985</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>3987</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>972.00000000000011</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43747</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>6435</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="6">
-        <f>D10*E10</f>
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>4687</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="6">
-        <f>D11*E11</f>
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="8"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>43281</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4">
+        <v>43393</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="5">
-        <v>1551</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>43288</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="C15" s="3">
+        <v>2451</v>
+      </c>
+      <c r="D15" s="3">
+        <v>300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="F15" s="15">
+        <f>D15*E15</f>
+        <v>1350</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4">
+        <v>43670</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="3">
-        <v>1851</v>
-      </c>
-      <c r="D20" s="3">
-        <f>C20-C19</f>
-        <v>300</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="F20" s="6">
-        <f>D20*E20</f>
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>43330</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2051</v>
-      </c>
-      <c r="D21" s="3">
-        <v>200</v>
-      </c>
-      <c r="E21" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="F21" s="6">
-        <f>D21*E21</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>43386</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2151</v>
-      </c>
-      <c r="D22" s="3">
-        <v>100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="F22" s="6">
-        <f>D22*E22</f>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>43393</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2451</v>
-      </c>
-      <c r="D23" s="3">
-        <v>300</v>
-      </c>
-      <c r="E23" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="F23" s="6">
-        <f>D23*E23</f>
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>43670</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
+      <c r="C16" s="3">
         <v>2851</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D16" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E16" s="3">
         <v>4.49</v>
       </c>
-      <c r="F24" s="6">
-        <f>D24*E24</f>
+      <c r="F16" s="15">
+        <f>D16*E16</f>
         <v>1796</v>
       </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="7:8">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="7:8">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -913,12 +860,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -927,12 +874,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/116ee.xlsx
+++ b/sputnik/personal/ee/116ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -60,11 +60,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -232,6 +232,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -292,7 +293,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -324,9 +325,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -358,6 +360,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -533,17 +536,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
@@ -558,7 +561,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="53.25" customHeight="1">
+    <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -584,7 +587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43393</v>
       </c>
@@ -600,7 +603,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -614,7 +617,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43670</v>
       </c>
@@ -643,7 +646,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -667,7 +670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43747</v>
       </c>
@@ -696,7 +699,7 @@
         <v>3217</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -718,56 +721,87 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="15" t="s">
-        <v>12</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>43964</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6935</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8:D9" si="2">C8-C6</f>
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="15">
+        <f>D8*E8</f>
+        <v>2245</v>
       </c>
       <c r="G8" s="18">
-        <f>SUM(G4:G7)</f>
-        <v>5985</v>
+        <f>SUM(F8,F9)</f>
+        <v>2245</v>
       </c>
       <c r="H8" s="18">
-        <f>SUM(H4:H7)</f>
-        <v>5985</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="15"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4387</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="15">
+        <f>D9*E9</f>
+        <v>0</v>
+      </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2"/>
+      <c r="F10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="18">
+        <f>SUM(G4:G7)</f>
+        <v>5985</v>
+      </c>
+      <c r="H10" s="18">
+        <f>SUM(H4:H7)</f>
+        <v>5985</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="8"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -776,81 +810,133 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="16"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="17"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="4">
-        <v>43393</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2451</v>
-      </c>
-      <c r="D15" s="3">
-        <v>300</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="F15" s="15">
-        <f>D15*E15</f>
-        <v>1350</v>
-      </c>
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="4">
-        <v>43670</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2851</v>
-      </c>
-      <c r="D16" s="3">
-        <v>400</v>
-      </c>
-      <c r="E16" s="3">
-        <v>4.49</v>
-      </c>
-      <c r="F16" s="15">
-        <f>D16*E16</f>
-        <v>1796</v>
-      </c>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="7:8">
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="7:8">
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>43393</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2451</v>
+      </c>
+      <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="F17" s="15">
+        <f>D17*E17</f>
+        <v>1350</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1350</v>
+      </c>
+      <c r="H17" s="19">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>43670</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2851</v>
+      </c>
+      <c r="D18" s="3">
+        <v>400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="15">
+        <f>D18*E18</f>
+        <v>1796</v>
+      </c>
+      <c r="G18" s="19">
+        <v>1796</v>
+      </c>
+      <c r="H18" s="19">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>43964</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3351</v>
+      </c>
+      <c r="D19" s="3">
+        <f>SUM(C19,-C18)</f>
+        <v>500</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F19" s="15">
+        <f>D19*E19</f>
+        <v>2245</v>
+      </c>
+      <c r="G19" s="19">
+        <v>2245</v>
+      </c>
+      <c r="H19" s="19">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -860,12 +946,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -874,12 +960,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/116ee.xlsx
+++ b/sputnik/personal/ee/116ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -540,10 +540,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -688,7 +688,7 @@
         <v>4.49</v>
       </c>
       <c r="F6" s="15">
-        <f>D6*E6</f>
+        <f t="shared" ref="F6:F11" si="2">D6*E6</f>
         <v>2245</v>
       </c>
       <c r="G6" s="18">
@@ -715,7 +715,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="15">
-        <f>D7*E7</f>
+        <f t="shared" si="2"/>
         <v>972.00000000000011</v>
       </c>
       <c r="G7" s="18"/>
@@ -732,14 +732,14 @@
         <v>6935</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:D9" si="2">C8-C6</f>
+        <f t="shared" ref="D8:D9" si="3">C8-C6</f>
         <v>500</v>
       </c>
       <c r="E8" s="3">
         <v>4.49</v>
       </c>
       <c r="F8" s="15">
-        <f>D8*E8</f>
+        <f t="shared" si="2"/>
         <v>2245</v>
       </c>
       <c r="G8" s="18">
@@ -747,7 +747,7 @@
         <v>2245</v>
       </c>
       <c r="H8" s="18">
-        <v>3217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -759,184 +759,310 @@
         <v>4387</v>
       </c>
       <c r="D9" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E9" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="15">
-        <f>D9*E9</f>
-        <v>0</v>
-      </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="15" t="s">
-        <v>12</v>
+      <c r="A10" s="4">
+        <v>44020</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7035</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D11" si="4">C10-C8</f>
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="2"/>
+        <v>449</v>
       </c>
       <c r="G10" s="18">
-        <f>SUM(G4:G7)</f>
-        <v>5985</v>
+        <f>SUM(F10,F11)</f>
+        <v>692</v>
       </c>
       <c r="H10" s="18">
-        <f>SUM(H4:H7)</f>
-        <v>5985</v>
+        <v>692</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="15"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4487</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="2"/>
+        <v>243.00000000000003</v>
+      </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="A12" s="4">
+        <v>44020</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>8035</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="5">C12-C10</f>
+        <v>1000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" ref="F12:F13" si="6">D12*E12</f>
+        <v>4710</v>
+      </c>
+      <c r="G12" s="18">
+        <f>SUM(F12,F13)</f>
+        <v>7260</v>
+      </c>
+      <c r="H12" s="18">
+        <v>7260</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5487</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" si="6"/>
+        <v>2550</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="F14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="18">
+        <f>SUM(G4:G13)</f>
+        <v>16182</v>
+      </c>
+      <c r="H14" s="18">
+        <f>SUM(H4:H13)</f>
+        <v>14162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="17"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>43393</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C21" s="3">
         <v>2451</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D21" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E21" s="3">
         <v>4.5</v>
       </c>
-      <c r="F17" s="15">
-        <f>D17*E17</f>
+      <c r="F21" s="15">
+        <f>D21*E21</f>
         <v>1350</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G21" s="19">
         <v>1350</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H21" s="19">
         <v>1350</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>43670</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C22" s="3">
         <v>2851</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D22" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E22" s="3">
         <v>4.49</v>
       </c>
-      <c r="F18" s="15">
-        <f>D18*E18</f>
+      <c r="F22" s="15">
+        <f>D22*E22</f>
         <v>1796</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G22" s="19">
         <v>1796</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H22" s="19">
         <v>1796</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>43964</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C23" s="3">
         <v>3351</v>
       </c>
-      <c r="D19" s="3">
-        <f>SUM(C19,-C18)</f>
+      <c r="D23" s="3">
+        <f>SUM(C23,-C22)</f>
         <v>500</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E23" s="3">
         <v>4.49</v>
       </c>
-      <c r="F19" s="15">
-        <f>D19*E19</f>
+      <c r="F23" s="15">
+        <f>D23*E23</f>
         <v>2245</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G23" s="19">
         <v>2245</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H23" s="19">
         <v>2245</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>44020</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3451</v>
+      </c>
+      <c r="D24" s="3">
+        <f>SUM(C24,-C23)</f>
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F24" s="15">
+        <f>D24*E24</f>
+        <v>449</v>
+      </c>
+      <c r="G24" s="19">
+        <v>449</v>
+      </c>
+      <c r="H24" s="19">
+        <v>449</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/116ee.xlsx
+++ b/sputnik/personal/ee/116ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Т2</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
@@ -37,9 +34,6 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
-  </si>
-  <si>
-    <t>БАНЯ</t>
   </si>
   <si>
     <t>День/ ночь</t>
@@ -540,10 +534,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -563,140 +557,138 @@
   <sheetData>
     <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43393</v>
+        <v>43747</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>5535</v>
+        <v>6435</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="15"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>3587</v>
+        <v>4387</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="15"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43670</v>
+        <v>43964</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>5935</v>
+        <v>6935</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D7" si="0">C4-C2</f>
-        <v>400</v>
+        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
+        <v>500</v>
       </c>
       <c r="E4" s="3">
         <v>4.49</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
-        <v>1796</v>
+        <f t="shared" ref="F2:F7" si="1">D4*E4</f>
+        <v>2245</v>
       </c>
       <c r="G4" s="18">
         <f>SUM(F4,F5)</f>
-        <v>2768</v>
+        <v>2245</v>
       </c>
       <c r="H4" s="18">
-        <v>2768</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>3987</v>
+        <v>4387</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="15">
         <f t="shared" si="1"/>
-        <v>972.00000000000011</v>
+        <v>0</v>
       </c>
       <c r="G5" s="18"/>
-      <c r="H5" s="18" t="s">
-        <v>2</v>
-      </c>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43747</v>
+        <v>44020</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>6435</v>
+        <v>7035</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>500</v>
+        <f t="shared" ref="D6:D7" si="2">C6-C4</f>
+        <v>100</v>
       </c>
       <c r="E6" s="3">
         <v>4.49</v>
       </c>
       <c r="F6" s="15">
-        <f t="shared" ref="F6:F11" si="2">D6*E6</f>
-        <v>2245</v>
+        <f t="shared" si="1"/>
+        <v>449</v>
       </c>
       <c r="G6" s="18">
         <f>SUM(F6,F7)</f>
-        <v>3217</v>
+        <v>692</v>
       </c>
       <c r="H6" s="18">
-        <v>3217</v>
+        <v>692</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -705,49 +697,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>4387</v>
+        <v>4487</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="E7" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="15">
-        <f t="shared" si="2"/>
-        <v>972.00000000000011</v>
+        <f t="shared" si="1"/>
+        <v>243.00000000000003</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43964</v>
+        <v>44020</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>6935</v>
+        <v>8035</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ref="D8:D9" si="3">C8-C6</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F8" s="15">
-        <f t="shared" si="2"/>
-        <v>2245</v>
+        <f t="shared" ref="F8:F9" si="4">D8*E8</f>
+        <v>4710</v>
       </c>
       <c r="G8" s="18">
         <f>SUM(F8,F9)</f>
-        <v>2245</v>
+        <v>7260</v>
       </c>
       <c r="H8" s="18">
-        <v>225</v>
+        <v>7260</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -756,318 +748,144 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>4387</v>
+        <v>5487</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2550</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>44020</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>7035</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" ref="D10:D11" si="4">C10-C8</f>
-        <v>100</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="15">
-        <f t="shared" si="2"/>
-        <v>449</v>
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="G10" s="18">
-        <f>SUM(F10,F11)</f>
-        <v>692</v>
+        <f>SUM(G2:G9)</f>
+        <v>10197</v>
       </c>
       <c r="H10" s="18">
-        <v>692</v>
+        <f>SUM(H2:H9)</f>
+        <v>10197</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>4487</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="15">
-        <f t="shared" si="2"/>
-        <v>243.00000000000003</v>
-      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>44020</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>8035</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" ref="D12:D13" si="5">C12-C10</f>
-        <v>1000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4.71</v>
-      </c>
-      <c r="F12" s="15">
-        <f t="shared" ref="F12:F13" si="6">D12*E12</f>
-        <v>4710</v>
-      </c>
-      <c r="G12" s="18">
-        <f>SUM(F12,F13)</f>
-        <v>7260</v>
-      </c>
-      <c r="H12" s="18">
-        <v>7260</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>5487</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="5"/>
-        <v>1000</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F13" s="15">
-        <f t="shared" si="6"/>
-        <v>2550</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="18">
-        <f>SUM(G4:G13)</f>
-        <v>16182</v>
-      </c>
-      <c r="H14" s="18">
-        <f>SUM(H4:H13)</f>
-        <v>14162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="15"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="7"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>43393</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2451</v>
-      </c>
-      <c r="D21" s="3">
-        <v>300</v>
-      </c>
-      <c r="E21" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="F21" s="15">
-        <f>D21*E21</f>
-        <v>1350</v>
-      </c>
-      <c r="G21" s="19">
-        <v>1350</v>
-      </c>
-      <c r="H21" s="19">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>43670</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2851</v>
-      </c>
-      <c r="D22" s="3">
-        <v>400</v>
-      </c>
-      <c r="E22" s="3">
-        <v>4.49</v>
-      </c>
-      <c r="F22" s="15">
-        <f>D22*E22</f>
-        <v>1796</v>
-      </c>
-      <c r="G22" s="19">
-        <v>1796</v>
-      </c>
-      <c r="H22" s="19">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>43964</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3">
-        <v>3351</v>
-      </c>
-      <c r="D23" s="3">
-        <f>SUM(C23,-C22)</f>
-        <v>500</v>
-      </c>
-      <c r="E23" s="3">
-        <v>4.49</v>
-      </c>
-      <c r="F23" s="15">
-        <f>D23*E23</f>
-        <v>2245</v>
-      </c>
-      <c r="G23" s="19">
-        <v>2245</v>
-      </c>
-      <c r="H23" s="19">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>44020</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
-        <v>3451</v>
-      </c>
-      <c r="D24" s="3">
-        <f>SUM(C24,-C23)</f>
-        <v>100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>4.49</v>
-      </c>
-      <c r="F24" s="15">
-        <f>D24*E24</f>
-        <v>449</v>
-      </c>
-      <c r="G24" s="19">
-        <v>449</v>
-      </c>
-      <c r="H24" s="19">
-        <v>449</v>
-      </c>
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/116ee.xlsx
+++ b/sputnik/personal/ee/116ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -58,7 +58,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +77,13 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -182,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -227,6 +234,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -534,10 +544,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -629,7 +639,7 @@
         <v>4.49</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F2:F7" si="1">D4*E4</f>
+        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
         <v>2245</v>
       </c>
       <c r="G4" s="18">
@@ -663,33 +673,20 @@
       <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>44020</v>
+      <c r="A6" s="20">
+        <v>43967</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>7035</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" ref="D6:D7" si="2">C6-C4</f>
-        <v>100</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="15">
-        <f t="shared" si="1"/>
-        <v>449</v>
-      </c>
-      <c r="G6" s="18">
-        <f>SUM(F6,F7)</f>
-        <v>692</v>
-      </c>
-      <c r="H6" s="18">
-        <v>692</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -697,19 +694,11 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>4487</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="15">
-        <f t="shared" si="1"/>
-        <v>243.00000000000003</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
@@ -721,25 +710,25 @@
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>8035</v>
+        <v>333</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:D9" si="3">C8-C6</f>
-        <v>1000</v>
+        <f>C8-C6</f>
+        <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>4.71</v>
+        <v>4.49</v>
       </c>
       <c r="F8" s="15">
-        <f t="shared" ref="F8:F9" si="4">D8*E8</f>
-        <v>4710</v>
+        <f t="shared" si="1"/>
+        <v>449</v>
       </c>
       <c r="G8" s="18">
         <f>SUM(F8,F9)</f>
-        <v>7260</v>
+        <v>692</v>
       </c>
       <c r="H8" s="18">
-        <v>7260</v>
+        <v>692</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -748,47 +737,70 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>5487</v>
+        <v>390</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="3"/>
-        <v>1000</v>
+        <f>C9-C7</f>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="15">
-        <f t="shared" si="4"/>
-        <v>2550</v>
+        <f t="shared" si="1"/>
+        <v>243.00000000000003</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="15" t="s">
-        <v>10</v>
+      <c r="A10" s="4">
+        <v>44020</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1333</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D11" si="2">C10-C8</f>
+        <v>1000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" ref="F10:F11" si="3">D10*E10</f>
+        <v>4710</v>
       </c>
       <c r="G10" s="18">
-        <f>SUM(G2:G9)</f>
-        <v>10197</v>
+        <f>SUM(F10,F11)</f>
+        <v>7260</v>
       </c>
       <c r="H10" s="18">
-        <f>SUM(H2:H9)</f>
-        <v>10197</v>
+        <v>7260</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="15"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1390</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="3"/>
+        <v>2550</v>
+      </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
     </row>
@@ -798,22 +810,30 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="F12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="18">
+        <f>SUM(G2:G11)</f>
+        <v>10197</v>
+      </c>
+      <c r="H12" s="18">
+        <f>SUM(H2:H11)</f>
+        <v>10197</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -822,45 +842,45 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="16"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="17"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -881,6 +901,26 @@
       <c r="F20" s="15"/>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/116ee.xlsx
+++ b/sputnik/personal/ee/116ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -547,7 +544,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -805,30 +802,53 @@
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="15" t="s">
-        <v>10</v>
+      <c r="A12" s="4">
+        <v>44356</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1390</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="4">C12-C10</f>
+        <v>57</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" ref="F12:F13" si="5">D12*E12</f>
+        <v>268.46999999999997</v>
       </c>
       <c r="G12" s="18">
-        <f>SUM(G2:G11)</f>
-        <v>10197</v>
+        <f>SUM(F12,F13)</f>
+        <v>268.46999999999997</v>
       </c>
       <c r="H12" s="18">
-        <f>SUM(H2:H11)</f>
-        <v>10197</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="15"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1390</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
     </row>

--- a/sputnik/personal/ee/116ee.xlsx
+++ b/sputnik/personal/ee/116ee.xlsx
@@ -543,7 +543,7 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>

--- a/sputnik/personal/ee/116ee.xlsx
+++ b/sputnik/personal/ee/116ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>оплачено</t>
+  </si>
+  <si>
+    <t>новый счетчик</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -541,10 +547,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -562,7 +568,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -588,7 +594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43747</v>
       </c>
@@ -604,7 +610,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -618,7 +624,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43964</v>
       </c>
@@ -647,7 +653,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -669,7 +675,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>43967</v>
       </c>
@@ -679,13 +685,15 @@
       <c r="C6" s="3">
         <v>233</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="15"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -699,7 +707,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>44020</v>
       </c>
@@ -728,7 +736,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
@@ -750,7 +758,7 @@
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>44020</v>
       </c>
@@ -761,7 +769,7 @@
         <v>1333</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D11" si="2">C10-C8</f>
+        <f t="shared" ref="D10:D13" si="2">C10-C8</f>
         <v>1000</v>
       </c>
       <c r="E10" s="3">
@@ -779,7 +787,7 @@
         <v>7260</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
         <v>1</v>
@@ -801,7 +809,7 @@
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>44356</v>
       </c>
@@ -809,70 +817,104 @@
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>1390</v>
+        <v>1823</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" ref="D12:D13" si="4">C12-C10</f>
-        <v>57</v>
+        <f t="shared" si="2"/>
+        <v>490</v>
       </c>
       <c r="E12" s="3">
         <v>4.71</v>
       </c>
       <c r="F12" s="15">
-        <f t="shared" ref="F12:F13" si="5">D12*E12</f>
-        <v>268.46999999999997</v>
+        <f t="shared" ref="F12:F13" si="4">D12*E12</f>
+        <v>2307.9</v>
       </c>
       <c r="G12" s="18">
         <f>SUM(F12,F13)</f>
-        <v>268.46999999999997</v>
+        <v>3582.9</v>
       </c>
       <c r="H12" s="18">
         <v>3583</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>1390</v>
+        <v>1890</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>500</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1275</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>44453</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3323</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="5">C14-C12</f>
+        <v>1500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" ref="F14:F15" si="6">D14*E14</f>
+        <v>7440</v>
+      </c>
+      <c r="G14" s="18">
+        <f>SUM(F14,F15)</f>
+        <v>11460</v>
+      </c>
+      <c r="H14" s="18">
+        <v>11460</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3390</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="5"/>
+        <v>1500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="6"/>
+        <v>4020.0000000000005</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
